--- a/data/20220816_comparisons-other-studies.xlsx
+++ b/data/20220816_comparisons-other-studies.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerzeigler/Documents/apatite-zircon_nano-ct/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E704E394-1597-DE45-994C-C813F9624081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517867CA-75E8-084B-88C6-C5792E08E6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1000" windowWidth="18300" windowHeight="16440" activeTab="1" xr2:uid="{0C26FFB5-4032-F54C-9786-C44BB3E65C44}"/>
+    <workbookView xWindow="1700" yWindow="1000" windowWidth="18300" windowHeight="16440" xr2:uid="{0C26FFB5-4032-F54C-9786-C44BB3E65C44}"/>
   </bookViews>
   <sheets>
     <sheet name="evans et al " sheetId="1" r:id="rId1"/>
     <sheet name="guenthner" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -542,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F3A289-EF16-534F-ACFD-F2ECE3C27715}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="141" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1455,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C807D6E0-5FAE-9E40-80C9-71B2D500CAF8}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2186,4 +2187,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88D25EF-617A-9642-99C4-0FBEA761DB84}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A63" zoomScale="213" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>